--- a/plan/test/helper/単体テスト仕様書-OrderConverter.xlsx
+++ b/plan/test/helper/単体テスト仕様書-OrderConverter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF7A68-F635-4931-ACA4-D7EFA8B4258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A950F-A479-458E-BF70-60331C8837B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -375,26 +375,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,53 +419,41 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -830,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="C5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -850,25 +825,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,23 +858,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,20 +912,20 @@
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
       <c r="M4" s="9" t="s">
         <v>12</v>
       </c>
@@ -960,117 +935,51 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" ht="225" customHeight="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="21" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-    </row>
-    <row r="6" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-    </row>
-    <row r="7" spans="1:17" ht="60" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-    </row>
-    <row r="8" spans="1:17" ht="42" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P6:Q6"/>
+  <mergeCells count="11">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/test/helper/単体テスト仕様書-OrderConverter.xlsx
+++ b/plan/test/helper/単体テスト仕様書-OrderConverter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A950F-A479-458E-BF70-60331C8837B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6B3FE-1680-489D-87FC-8C74571D6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderHelper" sheetId="166" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>作成者</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Fullness Stationery社 文具/雑貨販売システム</t>
     <rPh sb="19" eb="20">
       <t>シャ</t>
@@ -165,6 +161,10 @@
   <si>
     <t>convertToEntity
 (formOrder:FormOrder)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>helper/OrderConverter.java</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -178,7 +178,6 @@
         -orderStatusId: 2
         -orderStatus: 注文済み
         -payMethodId: 1
-        -payMethod: 現金
         -customerId: 1
         -productId: 1
     }</t>
@@ -187,9 +186,6 @@
     </rPh>
     <rPh sb="184" eb="187">
       <t>チュウモンズ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ゲンキン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -209,7 +205,6 @@
         }
         -payMethod: PayMethod{
                 -payMethodId: 1
-                -payMethodName: 現金
         }
         -customerId: 1
     }
@@ -220,16 +215,30 @@
     <rPh sb="326" eb="327">
       <t>ズ</t>
     </rPh>
-    <rPh sb="434" eb="436">
-      <t>ゲンキン</t>
-    </rPh>
-    <rPh sb="468" eb="469">
+    <rPh sb="433" eb="434">
       <t>カエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>helper/OrderConverter.java</t>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -237,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -291,6 +300,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -381,7 +397,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,9 +405,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -422,10 +435,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,13 +468,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,45 +824,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="C5:G10"/>
+      <selection activeCell="P5" sqref="P5:Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="10" customWidth="1"/>
-    <col min="8" max="12" width="7.1796875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" style="4" customWidth="1"/>
-    <col min="14" max="15" width="9.6328125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="12.36328125" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="7" style="4"/>
+    <col min="1" max="1" width="6.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="9" customWidth="1"/>
+    <col min="8" max="12" width="7.1796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.6328125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="12.36328125" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="7" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,122 +872,137 @@
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
+      <c r="Q1" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>45496</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="9" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="225" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="19" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="25">
+        <v>45510</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" ht="11.25" customHeight="1">
+      <c r="O6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="A1:B2"/>
@@ -976,10 +1010,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
